--- a/scores.xlsx
+++ b/scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,11 @@
           <t>총점</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>성적</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -489,6 +494,11 @@
         <f>SUM(B2:G2)</f>
         <v/>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -516,6 +526,11 @@
         <f>SUM(B3:G3)</f>
         <v/>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -543,6 +558,11 @@
         <f>SUM(B4:G4)</f>
         <v/>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -570,6 +590,11 @@
         <f>SUM(B5:G5)</f>
         <v/>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -597,6 +622,11 @@
         <f>SUM(B6:G6)</f>
         <v/>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -624,6 +654,11 @@
         <f>SUM(B7:G7)</f>
         <v/>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -651,6 +686,11 @@
         <f>SUM(B8:G8)</f>
         <v/>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -678,6 +718,11 @@
         <f>SUM(B9:G9)</f>
         <v/>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -705,6 +750,11 @@
         <f>SUM(B10:G10)</f>
         <v/>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -731,6 +781,11 @@
       <c r="H11">
         <f>SUM(B11:G11)</f>
         <v/>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
     </row>
   </sheetData>
